--- a/elavult/Logikai_topologia_kiegeszites.xlsx
+++ b/elavult/Logikai_topologia_kiegeszites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_\vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF330EF-0F8D-4390-87DA-610D9C2C8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A75C5-E836-4F3D-8119-4330CA473596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8A0307C2-AC3B-46F9-8CBC-9FF1651ACEB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8A0307C2-AC3B-46F9-8CBC-9FF1651ACEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Portkiosztás" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t xml:space="preserve">VLAN azonosító </t>
   </si>
@@ -68,12 +67,6 @@
     <t>RG</t>
   </si>
   <si>
-    <t>Native</t>
-  </si>
-  <si>
-    <t>Vlan 99</t>
-  </si>
-  <si>
     <t>Vlan 120</t>
   </si>
   <si>
@@ -95,15 +88,9 @@
     <t>Rendelések</t>
   </si>
   <si>
-    <t>255.255.255.192</t>
-  </si>
-  <si>
     <t>Ügyfélszolgálat</t>
   </si>
   <si>
-    <t>192.168.56.1-192.168.56.62</t>
-  </si>
-  <si>
     <t>192.168.56.63</t>
   </si>
   <si>
@@ -167,12 +154,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>quantum</t>
-  </si>
-  <si>
-    <t>192.168.56.0/26</t>
-  </si>
-  <si>
     <t>192.168.56.64/27</t>
   </si>
   <si>
@@ -209,9 +190,6 @@
     <t>F0/1-4, G0/1</t>
   </si>
   <si>
-    <t>F0/9-24, G0/2</t>
-  </si>
-  <si>
     <t>F0/5-7</t>
   </si>
   <si>
@@ -221,9 +199,6 @@
     <t>Vezetoseg(Vlan 90)</t>
   </si>
   <si>
-    <t>F0/7</t>
-  </si>
-  <si>
     <t>Vezetőség</t>
   </si>
   <si>
@@ -236,39 +211,21 @@
     <t>192.168.56.159</t>
   </si>
   <si>
-    <t>SW_1, SW_3</t>
-  </si>
-  <si>
     <t>Vlan 90</t>
   </si>
   <si>
     <t>Vezetoseg</t>
   </si>
   <si>
-    <t>Vlan 95</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
-    <t>8 db</t>
-  </si>
-  <si>
-    <t>1 db</t>
-  </si>
-  <si>
     <t>3 db</t>
   </si>
   <si>
     <t>4 db</t>
   </si>
   <si>
-    <t>192.168.56.192/26</t>
-  </si>
-  <si>
-    <t>192.168.56.193-192.168.56.254</t>
-  </si>
-  <si>
     <t>192.168.56.255</t>
   </si>
   <si>
@@ -281,17 +238,101 @@
     <t>F0/1-4</t>
   </si>
   <si>
-    <t>F0/1-5, G0/1</t>
-  </si>
-  <si>
-    <t>Management(Vlan 95)</t>
+    <t>SW_2, SW_3</t>
+  </si>
+  <si>
+    <t>quantum#</t>
+  </si>
+  <si>
+    <t>Vlan 192</t>
+  </si>
+  <si>
+    <t>9 db</t>
+  </si>
+  <si>
+    <t>Vlan 101</t>
+  </si>
+  <si>
+    <t>Nyomtatok</t>
+  </si>
+  <si>
+    <t>192.168.56.0/27</t>
+  </si>
+  <si>
+    <t>192.168.56.192/27</t>
+  </si>
+  <si>
+    <t>6 db</t>
+  </si>
+  <si>
+    <t>5 db</t>
+  </si>
+  <si>
+    <t>192.168.56.32/27</t>
+  </si>
+  <si>
+    <t>192.168.56.33-192.168.56.62</t>
+  </si>
+  <si>
+    <t>192.168.56.31</t>
+  </si>
+  <si>
+    <t>192.168.56.1-192.168.56.30</t>
+  </si>
+  <si>
+    <t>Szerverfarm</t>
+  </si>
+  <si>
+    <t>192.168.56.224/27</t>
+  </si>
+  <si>
+    <t>192.168.56.225-192.168.56.254</t>
+  </si>
+  <si>
+    <t>192.168.56.193-192.168.56.222</t>
+  </si>
+  <si>
+    <t>192.168.56.223</t>
+  </si>
+  <si>
+    <t>Raktár</t>
+  </si>
+  <si>
+    <t>192.168.56.160/27</t>
+  </si>
+  <si>
+    <t>192.168.56.161-192.168.56.190</t>
+  </si>
+  <si>
+    <t>192.168.56.191</t>
+  </si>
+  <si>
+    <t>Nyomtatok(Vlan 101)</t>
+  </si>
+  <si>
+    <t>Management(Vlan 192)</t>
+  </si>
+  <si>
+    <t>F0/9</t>
+  </si>
+  <si>
+    <t>F0/5, G0/2</t>
+  </si>
+  <si>
+    <t>F0/10-24, G0/2</t>
+  </si>
+  <si>
+    <t>F0/7-8</t>
+  </si>
+  <si>
+    <t>F0/10-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +347,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,8 +394,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD599DC-AB5F-4FC9-8F40-2424925F5D4A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,102 +788,130 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -841,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC166E-E967-459A-917C-7E20675C49AC}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,162 +939,241 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E6EC7-B1D6-44A4-8F9E-541E8323F3D4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,115 +1183,125 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
